--- a/updated.xlsx
+++ b/updated.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7350" windowWidth="14400" xWindow="1430" yWindow="2730"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10300" windowWidth="19420" xWindow="-110" yWindow="-110"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -390,130 +390,66 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="B1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <cols>
+    <col customWidth="1" max="2" min="2" width="62.26953125"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>changer</t>
-        </is>
-      </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>changing all these reviewis bc I 234has</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>chang reviewi bc</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Just </t>
-        </is>
-      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Data</t>
+          <t xml:space="preserve">changed the doc and want to </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Data</t>
+          <t>chang doc want</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sample </t>
-        </is>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>checking</t>
+          <t xml:space="preserve">check that a </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>checking</t>
+          <t>check</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>damn good, doesn’t make Wo[IWNE09</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>damn good make wo iwn</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>thwe</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>can</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>can</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>314</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>over</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>over</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>write</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>write</t>
-        </is>
-      </c>
-    </row>
-    <row r="8"/>
+    <row r="5"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
